--- a/related/sic/SIC-Formulari-Construccio-Desplegament-Aplicacio.xlsx
+++ b/related/sic/SIC-Formulari-Construccio-Desplegament-Aplicacio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="9D41" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20490" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="20490" windowHeight="7395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JEE - Construcció, Desplegament" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="269">
   <si>
     <t>CPD1_HP</t>
   </si>
@@ -1643,6 +1643,9 @@
   </si>
   <si>
     <t>Fitxer de plans:</t>
+  </si>
+  <si>
+    <t>WASLiberty</t>
   </si>
 </sst>
 </file>
@@ -2229,6 +2232,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2238,41 +2261,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2290,39 +2289,63 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2335,26 +2358,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3406,7 +3409,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -3418,20 +3421,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3531,14 +3534,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3547,28 +3550,28 @@
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="47" t="s">
         <v>153</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="47" t="s">
         <v>145</v>
       </c>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="47" t="s">
         <v>153</v>
       </c>
@@ -3577,7 +3580,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="53" t="s">
         <v>163</v>
       </c>
@@ -3586,7 +3589,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="53" t="s">
         <v>164</v>
       </c>
@@ -3595,7 +3598,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="18" t="s">
         <v>165</v>
       </c>
@@ -3609,11 +3612,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -3663,32 +3666,32 @@
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="111"/>
+      <c r="C31" s="108"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="113"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
@@ -3701,11 +3704,11 @@
       <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="117"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
@@ -3725,18 +3728,18 @@
       <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="106"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -3757,11 +3760,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="106"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -3782,11 +3785,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="106"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -3883,11 +3886,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="99"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
     </row>
     <row r="61" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
@@ -3916,20 +3919,20 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="101"/>
-      <c r="C65" s="102"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="117"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="116" t="s">
+      <c r="B66" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="117"/>
+      <c r="C66" s="119"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -3941,11 +3944,11 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="99"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="106"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
@@ -3957,11 +3960,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="97" t="s">
+      <c r="A70" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="98"/>
-      <c r="C70" s="99"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="106"/>
     </row>
     <row r="71" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
@@ -3982,20 +3985,20 @@
       <c r="C73" s="20"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="100" t="s">
+      <c r="A74" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="101"/>
-      <c r="C74" s="102"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="117"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="116" t="s">
+      <c r="B75" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="117"/>
+      <c r="C75" s="119"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
@@ -4007,11 +4010,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="99"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="106"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
@@ -4023,11 +4026,11 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="97" t="s">
+      <c r="A79" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="98"/>
-      <c r="C79" s="99"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="106"/>
     </row>
     <row r="80" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
@@ -4046,6 +4049,12 @@
   </sheetData>
   <sheetProtection password="9D41" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="A32:A35"/>
@@ -4062,12 +4071,6 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
@@ -4239,20 +4242,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -4352,14 +4355,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="130" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="53" t="s">
@@ -4370,7 +4373,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="53" t="s">
         <v>171</v>
       </c>
@@ -4379,7 +4382,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="53" t="s">
         <v>164</v>
       </c>
@@ -4388,7 +4391,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="119"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="18" t="s">
         <v>165</v>
       </c>
@@ -4410,15 +4413,15 @@
       <c r="A21" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
@@ -4456,25 +4459,25 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -4498,10 +4501,10 @@
       <c r="A33" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="117"/>
+      <c r="C33" s="119"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -4522,11 +4525,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="126"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="127"/>
     </row>
     <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
@@ -4568,18 +4571,18 @@
       <c r="C41" s="45"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="106"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
@@ -4601,10 +4604,10 @@
       <c r="A46" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="117"/>
+      <c r="C46" s="119"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -4616,11 +4619,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="106"/>
     </row>
     <row r="49" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="52" t="s">
@@ -4641,18 +4644,18 @@
       <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="100" t="s">
+      <c r="A52" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="102"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="117"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="98"/>
-      <c r="C53" s="99"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="106"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
@@ -4674,10 +4677,10 @@
       <c r="A56" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="116" t="s">
+      <c r="B56" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="117"/>
+      <c r="C56" s="119"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -4689,11 +4692,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="98"/>
-      <c r="C58" s="99"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="106"/>
     </row>
     <row r="59" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
@@ -4712,6 +4715,15 @@
   </sheetData>
   <sheetProtection password="9D41" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A58:C58"/>
@@ -4722,15 +4734,6 @@
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
@@ -4868,20 +4871,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -4986,11 +4989,11 @@
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -5060,8 +5063,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5072,20 +5075,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="21" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5154,11 +5157,11 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
@@ -5300,13 +5303,13 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Dades Formularis'!$M$2:$M$8</xm:f>
+            <xm:f>'Dades Formularis'!$M$2:$M$9</xm:f>
           </x14:formula1>
           <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
@@ -5333,20 +5336,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="21" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5446,14 +5449,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="134" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -5462,7 +5465,7 @@
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="47" t="s">
         <v>216</v>
       </c>
@@ -5471,7 +5474,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="53" t="s">
         <v>217</v>
       </c>
@@ -5480,7 +5483,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="53" t="s">
         <v>164</v>
       </c>
@@ -5489,7 +5492,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="128"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="18" t="s">
         <v>165</v>
       </c>
@@ -5503,11 +5506,11 @@
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
@@ -5524,11 +5527,11 @@
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -5566,11 +5569,11 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -5582,11 +5585,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
     </row>
     <row r="33" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="81" t="s">
@@ -5607,11 +5610,11 @@
       <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="102"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -5623,11 +5626,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="106"/>
     </row>
     <row r="39" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="81" t="s">
@@ -5838,57 +5841,57 @@
       <c r="C3" s="91"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
     </row>
     <row r="5" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="99" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="100" t="s">
         <v>228</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="101" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="100" t="s">
         <v>229</v>
       </c>
       <c r="B7" s="35"/>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="101" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="102" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="65"/>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="103" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="130"/>
+      <c r="B9" s="137"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="91"/>
@@ -9495,7 +9498,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9778,6 +9781,9 @@
         <v>210</v>
       </c>
       <c r="K9" s="90"/>
+      <c r="M9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
